--- a/competitors.xlsx
+++ b/competitors.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aldwin Tablante\Desktop\web_scraper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Comp" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -27,251 +22,413 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Casper</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/90910</t>
-  </si>
-  <si>
-    <t>Salt Flat</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/122591</t>
-  </si>
-  <si>
-    <t>RESIDENT- Nectar, DreamCloud, AWARA</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/86926</t>
-  </si>
-  <si>
-    <t>Awara Sleep</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/86926/line/fe3479d1-3707-03e0-ba78-77506bdc801b</t>
-  </si>
-  <si>
-    <t>Dreamcloud Sleep</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/86926/line/62382b2f-3a12-11e8-3e78-a097e2da5e8b</t>
-  </si>
-  <si>
-    <t>Nectar Sleep</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/86926/line/b2c3e2fe-b872-8f44-2791-bb9345a43bb4</t>
-  </si>
-  <si>
-    <t>Resident</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/86926/line/c549a3a5-e6d8-deb8-30c6-29d4b5f22b36</t>
-  </si>
-  <si>
-    <t>Malouf</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/66065</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/93651</t>
-  </si>
-  <si>
-    <t>Ergomotion</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/65826</t>
-  </si>
-  <si>
-    <t>Wellness Foundations</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/65826/line/26a79e59-4d48-9a49-68ad-d99e9ee13276</t>
-  </si>
-  <si>
-    <t>Wellness Retreats</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/65826/line/45e4cfcf-3013-df92-ee6a-ed3c68fab872</t>
-  </si>
-  <si>
-    <t>Classic Brands</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/65709</t>
-  </si>
-  <si>
-    <t>Hollywood Bed &amp; Spring Mfg.</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/65924</t>
-  </si>
-  <si>
-    <t>Hollywood Bed Frames</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/65924/line/58f6d777-df62-de71-e8c0-0279795c4990</t>
-  </si>
-  <si>
-    <t>GhostBed by Nature's Sleep</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/122944</t>
-  </si>
-  <si>
-    <t>Ventius International LLC</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/123103</t>
-  </si>
-  <si>
-    <t>Blu Sleep Products</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/65651</t>
-  </si>
-  <si>
-    <t>Protect All/Healthy Sleep by GBS Enterprises</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/66235</t>
-  </si>
-  <si>
-    <t>Therapedic International</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/30701</t>
-  </si>
-  <si>
-    <t>Tommy Bahama</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/30701/line/0adafd94-6c8f-4361-2e51-64e2511eddfc</t>
-  </si>
-  <si>
-    <t>MLILY</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/122678</t>
-  </si>
-  <si>
-    <t>South Bay International</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/66324</t>
-  </si>
-  <si>
-    <t>Blissful Nights</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/66324/line/eae62594-3548-491e-e1f3-9112b2325d5b</t>
-  </si>
-  <si>
-    <t>Southerland Inc</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/66327</t>
-  </si>
-  <si>
-    <t>American Sleep</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/66327/line/2981cd78-0424-dc84-60a8-da0608d02679</t>
-  </si>
-  <si>
-    <t>Englander</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/66327/line/619ae0a9-f491-71e6-0742-58396d2c8720</t>
-  </si>
-  <si>
-    <t>Heritage Copper Latex</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/66327/line/91b51fff-8dd8-2cd0-579a-e429bcf39712</t>
-  </si>
-  <si>
-    <t>InMotion Beds</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/66327/line/1079b0b8-84d8-1e2a-2e2e-19511c3c5b72</t>
-  </si>
-  <si>
-    <t>Ionic Sleep Systems</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/66327/line/3fc85c38-65e7-1e6b-bd26-8f0ff23f242c</t>
-  </si>
-  <si>
-    <t>Southerland</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/66327/line/63fb9a7e-a865-aa71-e602-78928c8c1474</t>
-  </si>
-  <si>
-    <t>Thermobalance</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/66327/line/160907cd-a541-072d-95b5-1ccb565ee1a2</t>
-  </si>
-  <si>
-    <t>Zhejiang Tri-Mix Technology Co.,Ltd</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/91098</t>
-  </si>
-  <si>
-    <t>Reverie</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/66257</t>
-  </si>
-  <si>
-    <t>Reverie R650</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/66257/line/d65ab660-bab5-b7b9-d3b1-d9f5c5c49d85</t>
-  </si>
-  <si>
-    <t>LOGICDATA</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/66046</t>
-  </si>
-  <si>
-    <t>Intellibed</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/65951</t>
-  </si>
-  <si>
-    <t>Diamond Mattress</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/65780</t>
-  </si>
-  <si>
-    <t>YouSleep</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/65780/line/d4897cca-7bb8-d589-0b26-dc4bf362e53e</t>
-  </si>
-  <si>
-    <t>Dr. Greene</t>
-  </si>
-  <si>
-    <t>https://www.lasvegasmarket.com/exhibitor/65780/line/819abf33-cf16-184c-4aee-0c7aa98b4e66</t>
+    <t>iAdjust</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65936</t>
+  </si>
+  <si>
+    <t>Homestar N.A.</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/97098</t>
+  </si>
+  <si>
+    <t>Noble House Home Furnishings</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66134</t>
+  </si>
+  <si>
+    <t>Jordan Manufacturing Company</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65973</t>
+  </si>
+  <si>
+    <t>SEI/Southern Enterprises</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66292</t>
+  </si>
+  <si>
+    <t>Holly &amp; Martin</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66292/line/ef9cdf33-d115-eddb-c19b-26453419c2a1</t>
+  </si>
+  <si>
+    <t>Fairmont Designs</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/10844</t>
+  </si>
+  <si>
+    <t>Harvest Green Mattress</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/94418</t>
+  </si>
+  <si>
+    <t>Accord Comfort Sleep Systems</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/123473</t>
+  </si>
+  <si>
+    <t>Vintage Furniture</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/84176</t>
+  </si>
+  <si>
+    <t>Restonic Mattress Corporation</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66256</t>
+  </si>
+  <si>
+    <t>Biltmore Mattresses</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66256/line/275a4577-23e6-98bc-f5f5-2b372e2c0d5b</t>
+  </si>
+  <si>
+    <t>ComfortCare</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66256/line/4a27f4ac-3756-c61c-2622-07d5430926e7</t>
+  </si>
+  <si>
+    <t>Scott Living Mattresses</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66256/line/e532f2f0-d955-178d-77c0-9397b8a7e34b</t>
+  </si>
+  <si>
+    <t>Spring Air International LLC</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66339</t>
+  </si>
+  <si>
+    <t>Boraam Industries</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65671</t>
+  </si>
+  <si>
+    <t>Lifestyle Solutions</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66041</t>
+  </si>
+  <si>
+    <t>Linon Home Decor</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66043</t>
+  </si>
+  <si>
+    <t>Novo Home</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66144</t>
+  </si>
+  <si>
+    <t>Powell Company</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66222</t>
+  </si>
+  <si>
+    <t>Serta ComfortLift</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66294</t>
+  </si>
+  <si>
+    <t>Bernards</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/83915</t>
+  </si>
+  <si>
+    <t>Bauhaus Furniture Group</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65625</t>
+  </si>
+  <si>
+    <t>OKIN</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66152</t>
+  </si>
+  <si>
+    <t>Magnussen Home</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66062</t>
+  </si>
+  <si>
+    <t>Martin Svensson Home</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66279</t>
+  </si>
+  <si>
+    <t>Liberty Furniture Industries, Inc.</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/86584</t>
+  </si>
+  <si>
+    <t>Delta Children</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/83916</t>
+  </si>
+  <si>
+    <t>Cosmos Furniture</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65736</t>
+  </si>
+  <si>
+    <t>Intercon, Inc.</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65952</t>
+  </si>
+  <si>
+    <t>A-America</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65542</t>
+  </si>
+  <si>
+    <t>Ergo Pedic Sleep Systems</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65824</t>
+  </si>
+  <si>
+    <t>AC Pacific Corporation</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/415</t>
+  </si>
+  <si>
+    <t>CorLiving Distribution</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65731</t>
+  </si>
+  <si>
+    <t>Decor-Rest Furniture Ltd</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65771</t>
+  </si>
+  <si>
+    <t>M. B. &amp; G. Marketing</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66059</t>
+  </si>
+  <si>
+    <t>Zoy Home Furnishings Co., Ltd</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/123990</t>
+  </si>
+  <si>
+    <t>Alpine Furniture</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65572</t>
+  </si>
+  <si>
+    <t>Ashley Furniture - TSI</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65612</t>
+  </si>
+  <si>
+    <t>Ashley Furniture</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65611</t>
+  </si>
+  <si>
+    <t>Ashley Furniture - SSB</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/90669</t>
+  </si>
+  <si>
+    <t>Global Furnishing Associates</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/90869</t>
+  </si>
+  <si>
+    <t>MotoMotion / MotoSleep</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66109</t>
+  </si>
+  <si>
+    <t>Eclipse International</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65806</t>
+  </si>
+  <si>
+    <t>Eclipse Cares Bed in a Box</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65806/line/400a33ff-ed74-5dfa-37e5-31d3f68a5e2a</t>
+  </si>
+  <si>
+    <t>Eclipse Health Sense</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65806/line/da9e87ad-2bf4-0f1d-7e7f-d87e610e8ae1</t>
+  </si>
+  <si>
+    <t>Eclipse Wellness</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65806/line/7e4b0509-b4df-6f2b-e5e5-9b4d1e9005de</t>
+  </si>
+  <si>
+    <t>Eastman House</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65806/line/d2d15df2-5d77-8b15-3cfb-9a801a2f9777</t>
+  </si>
+  <si>
+    <t>Chittenden &amp; Eastman</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65806/line/288ee597-d11a-b511-103b-b6b300bf99b9</t>
+  </si>
+  <si>
+    <t>Embrace Talalay Latex</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65806/line/75396d89-afa7-61e3-679e-42f8e4e7790d</t>
+  </si>
+  <si>
+    <t>Natural Dreams</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65806/line/3e9a43a2-24e1-4bef-a096-b4a0fb8c8a48</t>
+  </si>
+  <si>
+    <t>Hemingway</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65806/line/3dc07b3d-067a-0764-c737-d71d9bc4cdc6</t>
+  </si>
+  <si>
+    <t>Millbrook USA</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65806/line/0bfb973a-8173-2219-a42f-59804cb0af94</t>
+  </si>
+  <si>
+    <t>Millbrook UK</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65806/line/fef68176-892e-1823-cbba-5061e99839cc</t>
+  </si>
+  <si>
+    <t>Bedding Industries of America</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65806/line/a312ebe7-2297-b6f4-ac66-61b96027f994</t>
+  </si>
+  <si>
+    <t>Eastman House Mattress</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65803</t>
+  </si>
+  <si>
+    <t>BEDGEAR Performance Bedding</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65635</t>
+  </si>
+  <si>
+    <t>Brooklyn Bedding</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/4621</t>
+  </si>
+  <si>
+    <t>Furniture of America</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65866</t>
+  </si>
+  <si>
+    <t>Customatic Technologies</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/65757</t>
+  </si>
+  <si>
+    <t>Holland House Furniture</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/14307</t>
+  </si>
+  <si>
+    <t>Porter Designs</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66216</t>
+  </si>
+  <si>
+    <t>Primo International</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66228</t>
+  </si>
+  <si>
+    <t>Sealy</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66288</t>
+  </si>
+  <si>
+    <t>Rize</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66067</t>
+  </si>
+  <si>
+    <t>Tempur Sealy International Inc.</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66379</t>
+  </si>
+  <si>
+    <t>Kingsdown</t>
+  </si>
+  <si>
+    <t>https://www.lasvegasmarket.com/exhibitor/66000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,14 +442,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -319,10 +468,9 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -330,14 +478,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -384,7 +524,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,10 +556,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,7 +590,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -627,26 +765,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.26953125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -654,7 +788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -662,7 +796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -670,7 +804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -678,7 +812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -686,7 +820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -694,7 +828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -702,7 +836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -710,7 +844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -718,7 +852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -726,7 +860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -734,7 +868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -742,7 +876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -750,7 +884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -758,7 +892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -766,7 +900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -774,7 +908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -782,7 +916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -790,7 +924,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -798,7 +932,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -806,7 +940,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -814,7 +948,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -822,7 +956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -830,7 +964,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -838,7 +972,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -846,7 +980,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -854,7 +988,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -862,7 +996,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -870,7 +1004,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -878,7 +1012,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -886,7 +1020,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -894,7 +1028,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -902,7 +1036,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -910,7 +1044,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -918,7 +1052,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -926,7 +1060,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -934,7 +1068,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -942,7 +1076,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -950,7 +1084,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -958,12 +1092,228 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1008,8 +1358,34 @@
     <hyperlink ref="B39" r:id="rId38"/>
     <hyperlink ref="B40" r:id="rId39"/>
     <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B64" r:id="rId63"/>
+    <hyperlink ref="B65" r:id="rId64"/>
+    <hyperlink ref="B66" r:id="rId65"/>
+    <hyperlink ref="B67" r:id="rId66"/>
+    <hyperlink ref="B68" r:id="rId67"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId41"/>
 </worksheet>
 </file>